--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/advanced-deluxe20off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/advanced-deluxe20off.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{483A2E1F-1EAC-4FE9-A21E-05B354F1F4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89CE7303-5191-4CFC-B535-AC649E23C78D}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{483A2E1F-1EAC-4FE9-A21E-05B354F1F4CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE1CD363-7676-4DD8-8CD4-CD1369495D5C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="169">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -79,21 +79,12 @@
     <t>PCSA33N</t>
   </si>
   <si>
-    <t>https://www.crepeerase.com/campaign/advanced-deluxe20off-mem</t>
+    <t>https://www.crepeerase.com/campaign/advanced-deluxe20off-summer</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>advanced_deluxe20off_mem</t>
-  </si>
-  <si>
-    <t>lf_no_prp_advanced_deluxe20off_memorial</t>
-  </si>
-  <si>
-    <t>https://www.crepeerase.com/campaign/advanced-deluxe20off-summer</t>
-  </si>
-  <si>
     <t>advanced-deluxe20off-summer</t>
   </si>
   <si>
@@ -101,12 +92,6 @@
   </si>
   <si>
     <t>https://www.crepeerase.com/campaign/advanced-deluxe20off-july4th</t>
-  </si>
-  <si>
-    <t>advanced-deluxe20off-july4th</t>
-  </si>
-  <si>
-    <t>lf_no_prp_advanced_deluxe20off_july4th</t>
   </si>
   <si>
     <t>advanced-deluxe20off-20EvergreenSale</t>
@@ -1174,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1304,17 +1289,17 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="16.5">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1331,411 +1316,383 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" ht="16.5">
-      <c r="A6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="16.5">
-      <c r="A7" s="19" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" ht="31.5">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="15.75">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="15.75">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="15.75">
       <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="15.75">
+      <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="15.75">
-      <c r="A15" s="27" t="s">
+      <c r="C15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="15.75">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B21" s="5">
+        <v>59.95</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>59.95</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>39.950000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="5">
-        <v>59.95</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D23" s="5">
-        <v>59.95</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="5">
-        <v>39.950000000000003</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="5">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="15.75">
+        <v>64</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="173.25">
       <c r="A25" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="15.75">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="173.25">
       <c r="A26" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="173.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="31.5">
       <c r="A27" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="173.25">
+        <v>76</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="31.5">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>83</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A31" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>85</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A32" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>18</v>
@@ -1746,357 +1703,365 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="15.75">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="409.6">
       <c r="A33" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="409.6">
+        <v>89</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A35" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A36" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>96</v>
+        <v>58</v>
+      </c>
+      <c r="E36" s="5">
+        <v>39.950000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A37" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>63</v>
+        <v>100</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3</v>
       </c>
       <c r="E38" s="5">
-        <v>39.950000000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="173.25">
+      <c r="A40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="5">
-        <v>3</v>
-      </c>
-      <c r="C40" s="5">
-        <v>3</v>
-      </c>
-      <c r="D40" s="5">
-        <v>3</v>
-      </c>
-      <c r="E40" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="C40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="173.25">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="173.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="173.25">
+        <v>18</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="31.5">
       <c r="A43" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A44" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="31.5">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A45" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A46" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A47" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A48" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>83</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A49" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="B49" s="5">
+        <v>5</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>5</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A51" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="5">
-        <v>5</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2</v>
-      </c>
-      <c r="D51" s="5">
-        <v>5</v>
-      </c>
-      <c r="E51" s="5">
-        <v>2</v>
+      <c r="B51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="B52" s="5">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A53" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A54" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="5">
-        <v>3</v>
-      </c>
-      <c r="C54" s="5">
-        <v>3</v>
+        <v>131</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D54" s="5">
-        <v>3</v>
+        <v>59.95</v>
       </c>
       <c r="E54" s="5">
-        <v>3</v>
+        <v>39.950000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>135</v>
+      <c r="D55" s="5">
+        <v>3.99</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2.99</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2107,87 +2072,71 @@
         <v>137</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="5">
-        <v>59.95</v>
-      </c>
-      <c r="E56" s="5">
-        <v>39.950000000000003</v>
+        <v>137</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A57" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="5">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3</v>
+      </c>
+      <c r="E57" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A58" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75">
+      <c r="A59" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="5">
-        <v>3.99</v>
-      </c>
-      <c r="E57" s="5">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A58" s="4" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75">
+      <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A59" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="5">
-        <v>3</v>
-      </c>
-      <c r="C59" s="5">
-        <v>3</v>
-      </c>
-      <c r="D59" s="5">
-        <v>3</v>
-      </c>
-      <c r="E59" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A60" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" ht="15.75">
       <c r="A62" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2196,16 +2145,16 @@
     </row>
     <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2214,16 +2163,16 @@
     </row>
     <row r="65" spans="1:5" ht="15.75">
       <c r="A65" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2232,7 +2181,7 @@
     </row>
     <row r="67" spans="1:5" ht="15.75">
       <c r="A67" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2241,7 +2190,7 @@
     </row>
     <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2250,7 +2199,7 @@
     </row>
     <row r="69" spans="1:5" ht="15.75">
       <c r="A69" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2259,7 +2208,7 @@
     </row>
     <row r="70" spans="1:5" ht="15.75">
       <c r="A70" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2268,7 +2217,7 @@
     </row>
     <row r="71" spans="1:5" ht="15.75">
       <c r="A71" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2277,7 +2226,7 @@
     </row>
     <row r="72" spans="1:5" ht="15.75">
       <c r="A72" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2286,7 +2235,7 @@
     </row>
     <row r="73" spans="1:5" ht="15.75">
       <c r="A73" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2295,7 +2244,7 @@
     </row>
     <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2304,7 +2253,7 @@
     </row>
     <row r="75" spans="1:5" ht="15.75">
       <c r="A75" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2313,7 +2262,7 @@
     </row>
     <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2322,7 +2271,7 @@
     </row>
     <row r="77" spans="1:5" ht="15.75">
       <c r="A77" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2331,7 +2280,7 @@
     </row>
     <row r="78" spans="1:5" ht="15.75">
       <c r="A78" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2340,7 +2289,7 @@
     </row>
     <row r="79" spans="1:5" ht="15.75">
       <c r="A79" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -2349,7 +2298,7 @@
     </row>
     <row r="80" spans="1:5" ht="15.75">
       <c r="A80" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2358,7 +2307,7 @@
     </row>
     <row r="81" spans="1:5" ht="15.75">
       <c r="A81" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -2367,16 +2316,16 @@
     </row>
     <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" ht="15.75">
       <c r="A83" s="6" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -2385,16 +2334,16 @@
     </row>
     <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
+        <v>163</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" ht="15.75">
       <c r="A85" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -2403,7 +2352,7 @@
     </row>
     <row r="86" spans="1:5" ht="15.75">
       <c r="A86" s="6" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -2412,7 +2361,7 @@
     </row>
     <row r="87" spans="1:5" ht="15.75">
       <c r="A87" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -2421,7 +2370,7 @@
     </row>
     <row r="88" spans="1:5" ht="15.75">
       <c r="A88" s="6" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -2430,7 +2379,7 @@
     </row>
     <row r="89" spans="1:5" ht="15.75">
       <c r="A89" s="6" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -2439,7 +2388,7 @@
     </row>
     <row r="90" spans="1:5" ht="15.75">
       <c r="A90" s="6" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -2448,7 +2397,7 @@
     </row>
     <row r="91" spans="1:5" ht="15.75">
       <c r="A91" s="6" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -2457,7 +2406,7 @@
     </row>
     <row r="92" spans="1:5" ht="15.75">
       <c r="A92" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -2466,7 +2415,7 @@
     </row>
     <row r="93" spans="1:5" ht="15.75">
       <c r="A93" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -2475,7 +2424,7 @@
     </row>
     <row r="94" spans="1:5" ht="15.75">
       <c r="A94" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -2484,7 +2433,7 @@
     </row>
     <row r="95" spans="1:5" ht="15.75">
       <c r="A95" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -2493,7 +2442,7 @@
     </row>
     <row r="96" spans="1:5" ht="15.75">
       <c r="A96" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -2502,7 +2451,7 @@
     </row>
     <row r="97" spans="1:5" ht="15.75">
       <c r="A97" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -2511,7 +2460,7 @@
     </row>
     <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -2520,7 +2469,7 @@
     </row>
     <row r="99" spans="1:5" ht="15.75">
       <c r="A99" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -2529,100 +2478,74 @@
     </row>
     <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" ht="15.75">
       <c r="A101" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" ht="15.75">
       <c r="A102" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" ht="15.75">
       <c r="A103" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" ht="15.75">
-      <c r="A104" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
     </row>
     <row r="105" spans="1:5" ht="15.75">
-      <c r="A105" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.75">
-      <c r="A106" s="10"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.75">
-      <c r="A107" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="A105" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A58:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D2CE980E-314A-441B-8770-7B76202FF4C5}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{802D49B3-13B1-443B-B3A8-7C02321491FF}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{F2C58E3C-15BC-4749-AA15-AF8EBC66FCF7}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{40EA8335-533B-4F72-B375-D1EFB52983FF}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{E0A079C6-7D5F-40BD-9A05-86B830DFDE2D}"/>
-    <hyperlink ref="B2" r:id="rId6" xr:uid="{4A289BC7-115A-490A-B2D1-0BFACDFC42EE}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://www.google.com/url?q=https://www.crepeerase.com/20poff&amp;sa=D&amp;source=hangouts&amp;ust=1602932049190000&amp;usg=AFQjCNEuGlpucVI8zlYbqYFcFCYCA2ggUg" xr:uid="{B9E93440-BEE4-407B-9698-188800B9A5DE}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{F9E08A15-22DA-4697-8354-DA3CE9D719A5}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F2C58E3C-15BC-4749-AA15-AF8EBC66FCF7}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{E0A079C6-7D5F-40BD-9A05-86B830DFDE2D}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{4A289BC7-115A-490A-B2D1-0BFACDFC42EE}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://www.google.com/url?q=https://www.crepeerase.com/20poff&amp;sa=D&amp;source=hangouts&amp;ust=1602932049190000&amp;usg=AFQjCNEuGlpucVI8zlYbqYFcFCYCA2ggUg" xr:uid="{B9E93440-BEE4-407B-9698-188800B9A5DE}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{F9E08A15-22DA-4697-8354-DA3CE9D719A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2631,7 +2554,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2796,14 +2719,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE8D63D-2E81-4339-837F-7F18C9494163}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE300D08-B0CB-4DA8-9AA7-F031ED0BA7B6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE300D08-B0CB-4DA8-9AA7-F031ED0BA7B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59656202-A0B0-43EC-AE8C-F4D1B807D10E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59656202-A0B0-43EC-AE8C-F4D1B807D10E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE8D63D-2E81-4339-837F-7F18C9494163}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/advanced-deluxe20off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/advanced-deluxe20off.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23706"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{483A2E1F-1EAC-4FE9-A21E-05B354F1F4CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE1CD363-7676-4DD8-8CD4-CD1369495D5C}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{483A2E1F-1EAC-4FE9-A21E-05B354F1F4CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{14A56EE4-CF81-4A97-B131-2CA8F6312411}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,7 +342,7 @@
     <t>Post Purchase Upsell Payment Plan (Installment)</t>
   </si>
   <si>
-    <t>ICSA346</t>
+    <t>ICSA36U</t>
   </si>
   <si>
     <t>ICSA347</t>
@@ -613,7 +613,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -824,6 +830,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1398,13 +1407,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="15.75">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="15.75">
       <c r="A14" s="4" t="s">
@@ -1809,13 +1818,13 @@
       <c r="A39" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="27" t="s">
         <v>102</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -2099,13 +2108,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="1:5" ht="15.75">
       <c r="A59" s="6" t="s">
